--- a/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D803527-4B6C-4053-80B5-8CED2814983A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259C7F5-6205-4867-ACCD-E8DFF9DF3A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28020" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28875" yWindow="120" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,19 +141,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,7 +173,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,47 +457,47 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259C7F5-6205-4867-ACCD-E8DFF9DF3A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC64C56B-2EA2-4E78-BE3C-69E813CA5E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28875" yWindow="120" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -457,7 +458,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,7 +518,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>1001</v>
+        <v>9001</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -531,7 +532,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1002</v>
+        <v>8001</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -590,4 +591,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C51BD84-0449-42A2-B1C2-0E30CC916EC3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC64C56B-2EA2-4E78-BE3C-69E813CA5E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81239740-B6B2-4513-A7AE-67755A63CD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>守关boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk=100|MaxHp=200|MoveSpeed=5|Radius=5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +462,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,7 +559,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -569,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -583,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81239740-B6B2-4513-A7AE-67755A63CD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A89843-C38A-48B3-98FB-D93F76FC8E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,53 @@
   </si>
   <si>
     <t>Atk=100|MaxHp=200|MoveSpeed=5|Radius=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量=200|半径=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),int</t>
+  </si>
+  <si>
+    <t>DropScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropArg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落脚本（暂时只有1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002;5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003;10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落参数(掉落id,概率)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +195,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -176,9 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,20 +515,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,8 +545,14 @@
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -505,8 +568,14 @@
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +588,14 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>9001</v>
       </c>
@@ -534,7 +609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>8001</v>
       </c>
@@ -548,46 +623,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
         <v>1003</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
         <v>1004</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
         <v>1005</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>7001</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -599,12 +712,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C51BD84-0449-42A2-B1C2-0E30CC916EC3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A89843-C38A-48B3-98FB-D93F76FC8E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E4954A-EA26-42F4-AA50-E9377190FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,19 +158,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001;10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002;5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1003;10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>掉落参数(掉落id,概率)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003;5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;50;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;10;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量移速加成档位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量移速加成数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerSpeedVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值城堡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击=200|最大血量=500|移动速度=15|半径=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7;12;17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值小人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk=200|MaxHp=300|MoveSpeed=15|Radius=5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,21 +555,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="19.625" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,8 +594,14 @@
       <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -574,8 +623,14 @@
       <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,10 +647,16 @@
         <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>9001</v>
       </c>
@@ -608,99 +669,140 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
+        <v>9002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>8001</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>8002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
         <v>1003</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>1005</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>7001</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>7001</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E4954A-EA26-42F4-AA50-E9377190FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5F9D32-3737-4CB6-AD13-825CDFF22F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Atk=100|MaxHp=200|MoveSpeed=5|Radius=5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +207,22 @@
   </si>
   <si>
     <t>Atk=200|MaxHp=300|MoveSpeed=15|Radius=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk=1|MaxHp=200|MoveSpeed=5|Radius=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk=2|MaxHp=200|MoveSpeed=5|Radius=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk=3|MaxHp=200|MoveSpeed=5|Radius=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellIds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,9 +582,10 @@
     <col min="7" max="7" width="20.875" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
     <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,19 +602,22 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -618,19 +634,22 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,19 +663,19 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>9001</v>
       </c>
@@ -670,13 +689,13 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>9002</v>
       </c>
@@ -684,19 +703,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>8001</v>
       </c>
@@ -709,8 +728,11 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>8002</v>
       </c>
@@ -718,13 +740,13 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>1003</v>
       </c>
@@ -735,16 +757,19 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>1004</v>
       </c>
@@ -755,16 +780,19 @@
         <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>1005</v>
       </c>
@@ -775,34 +803,37 @@
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/CreatureConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5F9D32-3737-4CB6-AD13-825CDFF22F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6922C6-492B-4B1B-A80B-F896C8F69BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28995" yWindow="1260" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,14 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击=100|最大血量=200|移动速度=10|半径=5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk=100|MaxHp=200|MoveSpeed=10|Radius=5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Castle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大血量=200|半径=5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Treasure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击=200|最大血量=500|移动速度=15|半径=5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7;12;17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,23 +190,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Atk=200|MaxHp=300|MoveSpeed=15|Radius=5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk=1|MaxHp=200|MoveSpeed=5|Radius=5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk=2|MaxHp=200|MoveSpeed=5|Radius=5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk=3|MaxHp=200|MoveSpeed=5|Radius=5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpellIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003;1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击=100|基础最大血量=200|基础移速=10|基础半径=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础最大血量=200|基础半径=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击=1|基础最大血量=200|基础移速=5|基础半径=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击=2|基础最大血量=200|基础移速=5|基础半径=5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击=3|基础最大血量=200|基础移速=5|基础半径=5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,14 +562,14 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
     <col min="6" max="6" width="19.625" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
@@ -602,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -634,19 +626,19 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -663,16 +655,16 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -680,19 +672,19 @@
         <v>9001</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -700,19 +692,19 @@
         <v>9002</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -726,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1001</v>
@@ -740,10 +732,10 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -756,14 +748,14 @@
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
+      <c r="E10" t="s">
+        <v>45</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2">
         <v>1003</v>
@@ -779,17 +771,17 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
+      <c r="E11" t="s">
+        <v>46</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1003</v>
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -800,16 +792,16 @@
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2">
         <v>1003</v>
@@ -821,19 +813,19 @@
         <v>7001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
